--- a/biology/Botanique/Siparunaceae/Siparunaceae.xlsx
+++ b/biology/Botanique/Siparunaceae/Siparunaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Siparunacées regroupe des plantes angiospermes de divergence ancienne. Elle comprend des espèces de lianes et d'arbres.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Siparuna qui dériverait d'un nom vernaculaire amérindien donné à cette plante en Guyane, possiblement le Wayampi [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Siparuna qui dériverait d'un nom vernaculaire amérindien donné à cette plante en Guyane, possiblement le Wayampi .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] ne considère que 75 espèces réparties en 2 genres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) ne considère que 75 espèces réparties en 2 genres.
 Ce sont des lianes, des régions tropicales. On les rencontre en Amérique et en Afrique de l'Ouest.
 </t>
         </is>
@@ -574,12 +590,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[3] et  Angiosperm Phylogeny Website                        (16 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) et  Angiosperm Phylogeny Website                        (16 mai 2010) :
 genre Glossocalyx
 genre Siparuna
-Selon DELTA Angio           (13 avr. 2010)[5] :
+Selon DELTA Angio           (13 avr. 2010) :
 genre Siparuna
 genre Bracteanthus
 genre Glossocalyx</t>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Glossocalyx
 Glossocalyx longicuspis
 genre Siparuna
